--- a/biology/Médecine/Dossier_patient_informatisé/Dossier_patient_informatisé.xlsx
+++ b/biology/Médecine/Dossier_patient_informatisé/Dossier_patient_informatisé.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Dossier_patient_informatis%C3%A9</t>
+          <t>Dossier_patient_informatisé</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un dossier patient informatisé est un dossier informatique rassemblant les données médicales de patients[1]. Le terme désigne également un logiciel dans lequel les agents hospitaliers vont accéder aux informations contenus dans le dossier des patients (exemple : Sillage). 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un dossier patient informatisé est un dossier informatique rassemblant les données médicales de patients. Le terme désigne également un logiciel dans lequel les agents hospitaliers vont accéder aux informations contenus dans le dossier des patients (exemple : Sillage). 
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Dossier_patient_informatis%C3%A9</t>
+          <t>Dossier_patient_informatisé</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>En France</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En France, le Dossier médical partagé (DMP) est un projet de dossier patient informatisé qui a commencé à être opérationnel en 2011. Il est intégré à partir de 2021 au nouveau service Mon espace santé[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En France, le Dossier médical partagé (DMP) est un projet de dossier patient informatisé qui a commencé à être opérationnel en 2011. Il est intégré à partir de 2021 au nouveau service Mon espace santé.
 </t>
         </is>
       </c>
